--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/manufacturedItemIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/manufacturedItemIdSystems</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-manufacturedItemIdSystems.xlsx
+++ b/ValueSet-manufacturedItemIdSystems.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
